--- a/LF/TAS/Benin/bj_lf_tas2_2_partcipants_202006.xlsx
+++ b/LF/TAS/Benin/bj_lf_tas2_2_partcipants_202006.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\TAS\Benin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD72FCA5-9EDA-4565-AAE0-1EC861471589}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D192FB-F5A6-4D4D-A52C-9BE0E4FD0419}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -305,12 +305,6 @@
     <t>regex(.,'^[0-9]{2}$')</t>
   </si>
   <si>
-    <t>The code must be a two-digit number between 9 and 1000</t>
-  </si>
-  <si>
-    <t>Le code doit être un nombre à deux chiffres entre 9 et 1000</t>
-  </si>
-  <si>
     <t>Sélectionner le code de l'unité d'évaluation (UE)</t>
   </si>
   <si>
@@ -335,13 +329,19 @@
     <t>Please record the following unique ID code for the respondent on a separate list and on each diagnostic test(s) administered</t>
   </si>
   <si>
-    <t>. &gt;= 5 and . &lt;= 7</t>
-  </si>
-  <si>
-    <t>The age must be between 5 and 7 years</t>
-  </si>
-  <si>
-    <t>L'age doit être compris entre 5 et 7 ans</t>
+    <t>The code must be a two-digit number between 9 and 100</t>
+  </si>
+  <si>
+    <t>Le code doit être un nombre à deux chiffres entre 9 et 100</t>
+  </si>
+  <si>
+    <t>. &gt;= 5 and . &lt;= 12</t>
+  </si>
+  <si>
+    <t>The age must be between 5 and 12 years</t>
+  </si>
+  <si>
+    <t>L'age doit être compris entre 5 et 12 ans</t>
   </si>
 </sst>
 </file>
@@ -875,10 +875,10 @@
         <v>90</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
@@ -893,7 +893,7 @@
         <v>28</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>41</v>
@@ -923,11 +923,11 @@
         <v>40</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="8"/>
@@ -982,7 +982,7 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -1047,7 +1047,7 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="8"/>
@@ -1123,11 +1123,11 @@
         <v>54</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F11" s="10"/>
       <c r="K11" s="1" t="s">

--- a/LF/TAS/Benin/bj_lf_tas2_2_partcipants_202006.xlsx
+++ b/LF/TAS/Benin/bj_lf_tas2_2_partcipants_202006.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\TAS\Benin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D192FB-F5A6-4D4D-A52C-9BE0E4FD0419}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85581C05-EE17-40EB-A507-2AEF7C23FE06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="110">
   <si>
     <t>form_title</t>
   </si>
@@ -152,9 +152,6 @@
     <t>p_recorderID</t>
   </si>
   <si>
-    <t>p_eu_code</t>
-  </si>
-  <si>
     <t>Select your evaluation unit (EU)</t>
   </si>
   <si>
@@ -293,27 +290,15 @@
     <t>yes</t>
   </si>
   <si>
-    <t>bj_lf_tas2_2_partcipants_202006</t>
-  </si>
-  <si>
-    <t>2. TAS2 FL Form Participants</t>
-  </si>
-  <si>
     <t>Si vous êtes le seul enregistreur de votre équipe, cela peut être appelé un "identifiant d'équipe". L'identifiant de l'enregistreur est un code à 2 chiffres qui a été attribué à vous ou à votre équipe.</t>
   </si>
   <si>
     <t>regex(.,'^[0-9]{2}$')</t>
   </si>
   <si>
-    <t>Sélectionner le code de l'unité d'évaluation (UE)</t>
-  </si>
-  <si>
     <t>p_eu_name</t>
   </si>
   <si>
-    <t>Select your evaluation unit (EU) Code</t>
-  </si>
-  <si>
     <t>Sexe du participant</t>
   </si>
   <si>
@@ -342,15 +327,55 @@
   </si>
   <si>
     <t>L'age doit être compris entre 5 et 12 ans</t>
+  </si>
+  <si>
+    <t>bj_lf_tas2_2_partcipants_202008</t>
+  </si>
+  <si>
+    <t>p_c_commune</t>
+  </si>
+  <si>
+    <t>Select your commune</t>
+  </si>
+  <si>
+    <t>Sélectionner la commune</t>
+  </si>
+  <si>
+    <t>p_cluster_name</t>
+  </si>
+  <si>
+    <t>p_cluster_id</t>
+  </si>
+  <si>
+    <t>Select your school name</t>
+  </si>
+  <si>
+    <t>Select your school id</t>
+  </si>
+  <si>
+    <t>Sélectionner votre école</t>
+  </si>
+  <si>
+    <t>Sélectionner le code de votre école</t>
+  </si>
+  <si>
+    <t>2. Benin - TAS2 FL Form Participants (Août 2020)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -448,48 +473,49 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -772,36 +798,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="M4" sqref="M4:M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.609375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.609375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.21875" customWidth="1"/>
+    <col min="3" max="3" width="42.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.25" customWidth="1"/>
     <col min="5" max="5" width="47.5" customWidth="1"/>
-    <col min="6" max="6" width="47.38671875" customWidth="1"/>
-    <col min="7" max="7" width="12.609375" customWidth="1"/>
-    <col min="8" max="8" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.375" customWidth="1"/>
+    <col min="7" max="7" width="12.625" customWidth="1"/>
+    <col min="8" max="8" width="16.875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29.5" customWidth="1"/>
-    <col min="11" max="11" width="20.38671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.609375" customWidth="1"/>
-    <col min="13" max="13" width="9.71875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.38671875" customWidth="1"/>
-    <col min="15" max="15" width="13.88671875" customWidth="1"/>
-    <col min="16" max="16" width="36.609375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.625" customWidth="1"/>
+    <col min="13" max="13" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.375" customWidth="1"/>
+    <col min="15" max="15" width="13.875" customWidth="1"/>
+    <col min="16" max="16" width="36.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
@@ -851,7 +877,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="62.7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>25</v>
       </c>
@@ -868,39 +894,39 @@
         <v>24</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="12" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
       <c r="M2" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="8"/>
@@ -909,25 +935,25 @@
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="7"/>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="8"/>
@@ -936,260 +962,314 @@
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="7"/>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-    </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
       <c r="I6" s="3"/>
-      <c r="K6" s="4" t="s">
-        <v>81</v>
-      </c>
+      <c r="J6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-    </row>
-    <row r="7" spans="1:16" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="L7" s="4"/>
+      <c r="P6" s="7"/>
+    </row>
+    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
       <c r="M7" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-    </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+        <v>85</v>
+      </c>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>49</v>
+        <v>69</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="3"/>
+      <c r="K8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8" s="3"/>
+      <c r="M8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I8" s="4" t="s">
+      <c r="I9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+    </row>
+    <row r="10" spans="1:16" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="K10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" s="8"/>
+      <c r="M10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+    </row>
+    <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="K8" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-    </row>
-    <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="B11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="K9" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="K10" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="1" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>98</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
       <c r="F11" s="10"/>
       <c r="K11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M11" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="M11" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F12" s="10"/>
       <c r="K12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="M12" s="4"/>
-    </row>
-    <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+        <v>83</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="K14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B16" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="1" t="s">
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B17" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1205,18 +1285,18 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD6"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.38671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.609375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.71875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.71875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -1233,7 +1313,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>29</v>
       </c>
@@ -1247,7 +1327,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>29</v>
       </c>
@@ -1261,60 +1341,60 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" t="s">
         <v>68</v>
       </c>
-      <c r="B4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" t="s">
         <v>74</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" t="s">
         <v>75</v>
       </c>
-      <c r="C6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>76</v>
-      </c>
-      <c r="D7" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1329,18 +1409,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.109375" customWidth="1"/>
-    <col min="2" max="2" width="19.38671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.125" customWidth="1"/>
+    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1354,15 +1434,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C2">
-        <v>202006</v>
+        <v>20200818</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>

--- a/LF/TAS/Benin/bj_lf_tas2_2_partcipants_202006.xlsx
+++ b/LF/TAS/Benin/bj_lf_tas2_2_partcipants_202006.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\TAS\Benin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85581C05-EE17-40EB-A507-2AEF7C23FE06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518C8A11-1A0E-448B-973B-DB5CB6C4C4F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15360" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -86,9 +86,6 @@
     <t>constraint_message::English</t>
   </si>
   <si>
-    <t>English</t>
-  </si>
-  <si>
     <t>Enter Recorder ID</t>
   </si>
   <si>
@@ -359,7 +356,10 @@
     <t>Sélectionner le code de votre école</t>
   </si>
   <si>
-    <t>2. Benin - TAS2 FL Form Participants (Août 2020)</t>
+    <t>French</t>
+  </si>
+  <si>
+    <t>2. Benin - TAS2 FL Form Participants (Août 2020) V2</t>
   </si>
 </sst>
 </file>
@@ -807,27 +807,27 @@
       <selection pane="bottomRight" activeCell="M4" sqref="M4:M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.609375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.25" customWidth="1"/>
+    <col min="3" max="3" width="42.609375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.21875" customWidth="1"/>
     <col min="5" max="5" width="47.5" customWidth="1"/>
-    <col min="6" max="6" width="47.375" customWidth="1"/>
-    <col min="7" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="8" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.38671875" customWidth="1"/>
+    <col min="7" max="7" width="12.609375" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="29.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29.5" customWidth="1"/>
-    <col min="11" max="11" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.625" customWidth="1"/>
-    <col min="13" max="13" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.375" customWidth="1"/>
-    <col min="15" max="15" width="13.875" customWidth="1"/>
-    <col min="16" max="16" width="36.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.38671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.609375" customWidth="1"/>
+    <col min="13" max="13" width="9.71875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="35.38671875" customWidth="1"/>
+    <col min="15" max="15" width="13.88671875" customWidth="1"/>
+    <col min="16" max="16" width="36.609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
@@ -841,10 +841,10 @@
         <v>16</v>
       </c>
       <c r="E1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>23</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>6</v>
@@ -856,7 +856,7 @@
         <v>17</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>8</v>
@@ -877,56 +877,56 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="1" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="62.7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="E2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I2" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="13" t="s">
         <v>94</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>95</v>
       </c>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
       <c r="M2" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
     </row>
-    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="8"/>
@@ -935,25 +935,25 @@
       <c r="J3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
       <c r="P3" s="7"/>
     </row>
-    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>100</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>101</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="8"/>
@@ -962,25 +962,25 @@
       <c r="J4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
       <c r="P4" s="7"/>
     </row>
-    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F5" s="4"/>
       <c r="G5" s="8"/>
@@ -989,25 +989,25 @@
       <c r="J5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
       <c r="P5" s="7"/>
     </row>
-    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F6" s="4"/>
       <c r="G6" s="8"/>
@@ -1016,25 +1016,25 @@
       <c r="J6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="7"/>
     </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1044,233 +1044,233 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
     </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="4"/>
       <c r="I8" s="3"/>
       <c r="K8" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
     </row>
-    <row r="9" spans="1:16" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>46</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>98</v>
-      </c>
       <c r="K9" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L9" s="4"/>
       <c r="M9" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
     </row>
-    <row r="10" spans="1:16" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="8"/>
       <c r="H10" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="K10" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
     </row>
-    <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>50</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F11" s="10"/>
       <c r="K11" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="M11" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>52</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F12" s="10"/>
       <c r="K12" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" s="1" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="1" customFormat="1" ht="47" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F13" s="10"/>
       <c r="K13" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="M13" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="M13" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" s="1" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:16" s="1" customFormat="1" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>54</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>55</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F14" s="10"/>
       <c r="K14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M14" s="4"/>
     </row>
-    <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>56</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>57</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
         <v>37</v>
-      </c>
-      <c r="B17" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1288,15 +1288,15 @@
       <selection pane="bottomLeft" activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.38671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.609375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.71875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.71875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
@@ -1307,94 +1307,94 @@
         <v>15</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" t="s">
         <v>67</v>
       </c>
-      <c r="B4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" t="s">
         <v>73</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" t="s">
         <v>74</v>
       </c>
-      <c r="C6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>75</v>
-      </c>
-      <c r="D7" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1413,14 +1413,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="44.125" customWidth="1"/>
-    <col min="2" max="2" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.109375" customWidth="1"/>
+    <col min="2" max="2" width="19.38671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1434,18 +1434,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2">
-        <v>20200818</v>
+        <v>20200828</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
